--- a/results/data/CG1.2.xlsx
+++ b/results/data/CG1.2.xlsx
@@ -450,22 +450,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>143295.2309999999</v>
+        <v>143295.2310000001</v>
       </c>
       <c r="C2">
-        <v>754978.4700000001</v>
+        <v>754978.4700000002</v>
       </c>
       <c r="D2">
-        <v>32464.359</v>
+        <v>32550.93899999999</v>
       </c>
       <c r="E2">
-        <v>599666.7130000019</v>
+        <v>599667.1729999994</v>
       </c>
       <c r="F2">
-        <v>187179.1250000001</v>
+        <v>187179.1249999998</v>
       </c>
       <c r="G2">
-        <v>119355.145</v>
+        <v>119355.1630000001</v>
       </c>
       <c r="H2">
         <v>150869.165</v>
@@ -476,25 +476,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>165679.679</v>
+        <v>165679.6790000002</v>
       </c>
       <c r="C3">
-        <v>711866.3900000004</v>
+        <v>711866.3900000006</v>
       </c>
       <c r="D3">
-        <v>15510.966</v>
+        <v>15753.226</v>
       </c>
       <c r="E3">
-        <v>628410.3359999968</v>
+        <v>628411.0559999974</v>
       </c>
       <c r="F3">
-        <v>185809.6799999998</v>
+        <v>185809.68</v>
       </c>
       <c r="G3">
-        <v>110499.5769999999</v>
+        <v>110499.72</v>
       </c>
       <c r="H3">
-        <v>167395.9160000001</v>
+        <v>167395.916</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,22 +505,22 @@
         <v>163704.316</v>
       </c>
       <c r="C4">
-        <v>773660.0140000005</v>
+        <v>773660.0140000001</v>
       </c>
       <c r="D4">
-        <v>46244.132</v>
+        <v>46460.832</v>
       </c>
       <c r="E4">
-        <v>638288.0800000003</v>
+        <v>638320.2009999987</v>
       </c>
       <c r="F4">
         <v>216269.351</v>
       </c>
       <c r="G4">
-        <v>117627.9539999999</v>
+        <v>117631.867</v>
       </c>
       <c r="H4">
-        <v>148023.19</v>
+        <v>148023.1900000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,22 +528,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>170959.857</v>
+        <v>170960.6570000002</v>
       </c>
       <c r="C5">
-        <v>724488.0519999999</v>
+        <v>724488.0519999998</v>
       </c>
       <c r="D5">
-        <v>59913.66700000001</v>
+        <v>60139.187</v>
       </c>
       <c r="E5">
-        <v>718410.2660000008</v>
+        <v>718431.0040000005</v>
       </c>
       <c r="F5">
-        <v>301521.8130000001</v>
+        <v>301521.8129999997</v>
       </c>
       <c r="G5">
-        <v>185372.2949999996</v>
+        <v>185381.8519999998</v>
       </c>
       <c r="H5">
         <v>145550.67</v>
@@ -554,25 +554,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>181752.0509999999</v>
+        <v>181767.2709999999</v>
       </c>
       <c r="C6">
-        <v>844929.1660000002</v>
+        <v>844929.1660000004</v>
       </c>
       <c r="D6">
-        <v>57535.808</v>
+        <v>57862.82800000001</v>
       </c>
       <c r="E6">
-        <v>704934.643000003</v>
+        <v>704934.6430000024</v>
       </c>
       <c r="F6">
-        <v>331113.1789999997</v>
+        <v>331113.1789999998</v>
       </c>
       <c r="G6">
-        <v>192449.5420000004</v>
+        <v>192459.0310000004</v>
       </c>
       <c r="H6">
-        <v>142973.2119999999</v>
+        <v>142973.212</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,22 +583,22 @@
         <v>191677.5410000001</v>
       </c>
       <c r="C7">
-        <v>780127.3890000004</v>
+        <v>780127.389</v>
       </c>
       <c r="D7">
-        <v>81345.63700000002</v>
+        <v>81598.87699999999</v>
       </c>
       <c r="E7">
-        <v>815701.4070000025</v>
+        <v>815701.4070000015</v>
       </c>
       <c r="F7">
-        <v>295500.6099999999</v>
+        <v>295500.6100000001</v>
       </c>
       <c r="G7">
-        <v>402968.2570000001</v>
+        <v>402969.7210000003</v>
       </c>
       <c r="H7">
-        <v>159794.062</v>
+        <v>159794.0620000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CG1.2.xlsx
+++ b/results/data/CG1.2.xlsx
@@ -22,9 +22,6 @@
     <t>Inzetten als brandstof</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Overslag / opbulken</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Vergisten</t>
+  </si>
+  <si>
+    <t>overige</t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -456,19 +456,19 @@
         <v>754978.4700000002</v>
       </c>
       <c r="D2">
+        <v>599667.1729999995</v>
+      </c>
+      <c r="E2">
+        <v>187179.1249999998</v>
+      </c>
+      <c r="F2">
+        <v>119355.1630000001</v>
+      </c>
+      <c r="G2">
+        <v>150869.165</v>
+      </c>
+      <c r="H2">
         <v>32550.93899999999</v>
-      </c>
-      <c r="E2">
-        <v>599667.1729999994</v>
-      </c>
-      <c r="F2">
-        <v>187179.1249999998</v>
-      </c>
-      <c r="G2">
-        <v>119355.1630000001</v>
-      </c>
-      <c r="H2">
-        <v>150869.165</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,19 +482,19 @@
         <v>711866.3900000006</v>
       </c>
       <c r="D3">
+        <v>628411.0559999974</v>
+      </c>
+      <c r="E3">
+        <v>185809.68</v>
+      </c>
+      <c r="F3">
+        <v>110499.72</v>
+      </c>
+      <c r="G3">
+        <v>167395.916</v>
+      </c>
+      <c r="H3">
         <v>15753.226</v>
-      </c>
-      <c r="E3">
-        <v>628411.0559999974</v>
-      </c>
-      <c r="F3">
-        <v>185809.68</v>
-      </c>
-      <c r="G3">
-        <v>110499.72</v>
-      </c>
-      <c r="H3">
-        <v>167395.916</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,19 +508,19 @@
         <v>773660.0140000001</v>
       </c>
       <c r="D4">
+        <v>638320.2009999987</v>
+      </c>
+      <c r="E4">
+        <v>216269.351</v>
+      </c>
+      <c r="F4">
+        <v>117631.867</v>
+      </c>
+      <c r="G4">
+        <v>148023.1900000001</v>
+      </c>
+      <c r="H4">
         <v>46460.832</v>
-      </c>
-      <c r="E4">
-        <v>638320.2009999987</v>
-      </c>
-      <c r="F4">
-        <v>216269.351</v>
-      </c>
-      <c r="G4">
-        <v>117631.867</v>
-      </c>
-      <c r="H4">
-        <v>148023.1900000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,19 +534,19 @@
         <v>724488.0519999998</v>
       </c>
       <c r="D5">
+        <v>718431.0040000005</v>
+      </c>
+      <c r="E5">
+        <v>301521.8129999997</v>
+      </c>
+      <c r="F5">
+        <v>185381.8519999998</v>
+      </c>
+      <c r="G5">
+        <v>145550.67</v>
+      </c>
+      <c r="H5">
         <v>60139.187</v>
-      </c>
-      <c r="E5">
-        <v>718431.0040000005</v>
-      </c>
-      <c r="F5">
-        <v>301521.8129999997</v>
-      </c>
-      <c r="G5">
-        <v>185381.8519999998</v>
-      </c>
-      <c r="H5">
-        <v>145550.67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,19 +560,19 @@
         <v>844929.1660000004</v>
       </c>
       <c r="D6">
+        <v>704934.6430000024</v>
+      </c>
+      <c r="E6">
+        <v>331113.1789999998</v>
+      </c>
+      <c r="F6">
+        <v>192459.0310000004</v>
+      </c>
+      <c r="G6">
+        <v>142973.212</v>
+      </c>
+      <c r="H6">
         <v>57862.82800000001</v>
-      </c>
-      <c r="E6">
-        <v>704934.6430000024</v>
-      </c>
-      <c r="F6">
-        <v>331113.1789999998</v>
-      </c>
-      <c r="G6">
-        <v>192459.0310000004</v>
-      </c>
-      <c r="H6">
-        <v>142973.212</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,19 +586,19 @@
         <v>780127.389</v>
       </c>
       <c r="D7">
+        <v>815701.4070000015</v>
+      </c>
+      <c r="E7">
+        <v>295500.6100000001</v>
+      </c>
+      <c r="F7">
+        <v>402969.7210000003</v>
+      </c>
+      <c r="G7">
+        <v>159794.0620000001</v>
+      </c>
+      <c r="H7">
         <v>81598.87699999999</v>
-      </c>
-      <c r="E7">
-        <v>815701.4070000015</v>
-      </c>
-      <c r="F7">
-        <v>295500.6100000001</v>
-      </c>
-      <c r="G7">
-        <v>402969.7210000003</v>
-      </c>
-      <c r="H7">
-        <v>159794.0620000001</v>
       </c>
     </row>
   </sheetData>
